--- a/Mars/Results experiment.xlsx
+++ b/Mars/Results experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OMSA\ISyE6748_practicum_publish\Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC57F9A7-ED04-488B-8E46-026F33649C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758BE938-72D6-4EE8-B1B9-9A56D07B1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E4D7315C-30FB-4E3F-97F4-414471C9F41B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>Rank (x, y, z)</t>
   </si>
@@ -270,15 +270,6 @@
     <t>35 at 0.98</t>
   </si>
   <si>
-    <t>Autoencoder and OC-SVM</t>
-  </si>
-  <si>
-    <t>Factor 20 (bottleneck 16)</t>
-  </si>
-  <si>
-    <t>50 at 0.66</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -340,6 +331,45 @@
   </si>
   <si>
     <t>(20, 20)</t>
+  </si>
+  <si>
+    <t>55 at 0.8</t>
+  </si>
+  <si>
+    <t>NO Decomposition</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>{'gamma': 'scale', 'kernel': 'poly', 'nu': 0.05}</t>
+  </si>
+  <si>
+    <t>{'contamination': 0.05, 'max_features': 1.0, 'max_samples': 1.0, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>Autoencoder with oc svm</t>
+  </si>
+  <si>
+    <t>Factor=2, bottleneck=16</t>
+  </si>
+  <si>
+    <t>no difference seen changing factors and bottleneck values</t>
+  </si>
+  <si>
+    <t>No Decomposition</t>
+  </si>
+  <si>
+    <t>Autoencoder with oc-svm</t>
+  </si>
+  <si>
+    <t>Run time</t>
+  </si>
+  <si>
+    <t>Autoencoder and OC-SVM: Factor 20 (bottleneck 16)</t>
   </si>
 </sst>
 </file>
@@ -375,9 +405,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,15 +741,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08DC109-0DFE-425C-811D-898250066C7D}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
@@ -1256,7 +1285,7 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1276,7 +1305,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1293,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1327,7 +1356,7 @@
         <v>0.44</v>
       </c>
       <c r="F75">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,7 +1373,7 @@
         <v>0.46</v>
       </c>
       <c r="F76">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,7 +1407,7 @@
         <v>0.92</v>
       </c>
       <c r="F78">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1395,7 +1424,7 @@
         <v>0.98</v>
       </c>
       <c r="F79">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,7 +1441,7 @@
         <v>0.96</v>
       </c>
       <c r="F80">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,7 +1458,7 @@
         <v>0.96</v>
       </c>
       <c r="F81">
-        <v>0.62</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,7 +1475,7 @@
         <v>0.96</v>
       </c>
       <c r="F82">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,7 +1492,7 @@
         <v>0.9</v>
       </c>
       <c r="F83">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,7 +1509,7 @@
         <v>0.92</v>
       </c>
       <c r="F84">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1526,7 @@
         <v>0.54</v>
       </c>
       <c r="F85">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -1514,7 +1543,7 @@
         <v>0.5</v>
       </c>
       <c r="F86">
-        <v>0.4</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1531,7 +1560,7 @@
         <v>0.42</v>
       </c>
       <c r="F87">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1548,7 +1577,7 @@
         <v>0.46</v>
       </c>
       <c r="F88">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,6 +1593,9 @@
       <c r="E89">
         <v>0.48</v>
       </c>
+      <c r="F89">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90">
@@ -1578,6 +1610,9 @@
       <c r="E90">
         <v>0.48</v>
       </c>
+      <c r="F90">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91">
@@ -1592,6 +1627,9 @@
       <c r="E91">
         <v>0.5</v>
       </c>
+      <c r="F91">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -1607,7 +1645,67 @@
         <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98">
+        <v>0.62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99">
+        <v>0.44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100">
+        <v>0.42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>0.74</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1618,13 +1716,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED864E-F45D-4DB1-A622-1F4710D7B3A3}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1636,7 +1737,7 @@
         <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1866,7 +1967,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2386,12 +2487,12 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2399,12 +2500,12 @@
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2439,7 +2540,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>0.63970000000000005</v>
@@ -2474,7 +2575,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>0.60640000000000005</v>
@@ -2509,7 +2610,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <v>0.63339999999999996</v>
@@ -2544,7 +2645,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>0.6421</v>
@@ -2579,7 +2680,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>0.56040000000000001</v>
@@ -2614,7 +2715,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>0.56569999999999998</v>
@@ -2649,7 +2750,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>0.5554</v>
@@ -2684,7 +2785,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>0.54349999999999998</v>
@@ -2719,7 +2820,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>0.53</v>
@@ -2754,7 +2855,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>0.53979999999999995</v>
@@ -2789,7 +2890,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>0.61370000000000002</v>
@@ -2824,7 +2925,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>0.60950000000000004</v>
@@ -2857,9 +2958,9 @@
         <v>0.87990000000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49">
         <v>0.52990000000000004</v>
@@ -2892,9 +2993,9 @@
         <v>0.96930000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>0.53769999999999996</v>
@@ -2927,9 +3028,9 @@
         <v>0.93569999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <v>0.60609999999999997</v>
@@ -2962,9 +3063,9 @@
         <v>0.85470000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52">
         <v>0.59540000000000004</v>
@@ -2997,7 +3098,7 @@
         <v>0.82240000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>67</v>
       </c>
@@ -3040,6 +3141,164 @@
       <c r="L53">
         <f t="shared" si="3"/>
         <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58">
+        <v>9</v>
+      </c>
+      <c r="N58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E59">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F59">
+        <v>0.9</v>
+      </c>
+      <c r="G59">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H59">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="J59">
+        <v>0.9</v>
+      </c>
+      <c r="K59">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L59">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="M59">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="E60">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="F60">
+        <v>0.54410000000000003</v>
+      </c>
+      <c r="G60">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="H60">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="I60">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="J60">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="K60">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="M60">
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="E61">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="F61">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="G61">
+        <v>0.81</v>
+      </c>
+      <c r="H61">
+        <v>0.68069999999999997</v>
+      </c>
+      <c r="I61">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="J61">
+        <v>0.5161</v>
+      </c>
+      <c r="K61">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="L61">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="M61">
+        <v>0.91559999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Mars/Results experiment.xlsx
+++ b/Mars/Results experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OMSA\ISyE6748_practicum_publish\Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758BE938-72D6-4EE8-B1B9-9A56D07B1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{FF68130B-5487-4735-BB38-1E70114D823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E4D7315C-30FB-4E3F-97F4-414471C9F41B}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="BASELINE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Rank (x, y, z)</t>
   </si>
@@ -45,207 +46,9 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>(5, 5, 5)</t>
-  </si>
-  <si>
-    <t>(5, 5, 35)</t>
-  </si>
-  <si>
-    <t>(5, 5, 65)</t>
-  </si>
-  <si>
-    <t>(5, 5, 95)</t>
-  </si>
-  <si>
-    <t>(5, 35, 5)</t>
-  </si>
-  <si>
-    <t>(5, 35, 35)</t>
-  </si>
-  <si>
-    <t>(5, 35, 65)</t>
-  </si>
-  <si>
-    <t>(5, 35, 95)</t>
-  </si>
-  <si>
-    <t>(5, 65, 5)</t>
-  </si>
-  <si>
-    <t>(5, 65, 35)</t>
-  </si>
-  <si>
-    <t>(5, 65, 65)</t>
-  </si>
-  <si>
-    <t>(5, 65, 95)</t>
-  </si>
-  <si>
-    <t>(5, 95, 5)</t>
-  </si>
-  <si>
-    <t>(5, 95, 35)</t>
-  </si>
-  <si>
-    <t>(5, 95, 65)</t>
-  </si>
-  <si>
-    <t>(5, 95, 95)</t>
-  </si>
-  <si>
-    <t>(35, 5, 5)</t>
-  </si>
-  <si>
-    <t>(35, 5, 35)</t>
-  </si>
-  <si>
-    <t>(35, 5, 65)</t>
-  </si>
-  <si>
-    <t>(35, 5, 95)</t>
-  </si>
-  <si>
-    <t>(35, 35, 5)</t>
-  </si>
-  <si>
-    <t>(35, 35, 35)</t>
-  </si>
-  <si>
-    <t>(35, 35, 65)</t>
-  </si>
-  <si>
-    <t>(35, 35, 95)</t>
-  </si>
-  <si>
-    <t>(35, 65, 5)</t>
-  </si>
-  <si>
-    <t>(35, 65, 35)</t>
-  </si>
-  <si>
-    <t>(35, 65, 65)</t>
-  </si>
-  <si>
-    <t>(35, 65, 95)</t>
-  </si>
-  <si>
-    <t>(35, 95, 5)</t>
-  </si>
-  <si>
-    <t>(35, 95, 35)</t>
-  </si>
-  <si>
-    <t>(35, 95, 65)</t>
-  </si>
-  <si>
-    <t>(35, 95, 95)</t>
-  </si>
-  <si>
-    <t>(65, 5, 5)</t>
-  </si>
-  <si>
-    <t>(65, 5, 35)</t>
-  </si>
-  <si>
-    <t>(65, 5, 65)</t>
-  </si>
-  <si>
-    <t>(65, 5, 95)</t>
-  </si>
-  <si>
-    <t>(65, 35, 5)</t>
-  </si>
-  <si>
-    <t>(65, 35, 35)</t>
-  </si>
-  <si>
-    <t>(65, 35, 65)</t>
-  </si>
-  <si>
-    <t>(65, 35, 95)</t>
-  </si>
-  <si>
-    <t>(65, 65, 5)</t>
-  </si>
-  <si>
-    <t>(65, 65, 35)</t>
-  </si>
-  <si>
-    <t>(65, 65, 65)</t>
-  </si>
-  <si>
-    <t>(65, 65, 95)</t>
-  </si>
-  <si>
-    <t>(65, 95, 5)</t>
-  </si>
-  <si>
-    <t>(65, 95, 35)</t>
-  </si>
-  <si>
-    <t>(65, 95, 65)</t>
-  </si>
-  <si>
-    <t>(65, 95, 95)</t>
-  </si>
-  <si>
-    <t>(95, 5, 5)</t>
-  </si>
-  <si>
-    <t>(95, 5, 35)</t>
-  </si>
-  <si>
-    <t>(95, 5, 65)</t>
-  </si>
-  <si>
-    <t>(95, 5, 95)</t>
-  </si>
-  <si>
-    <t>(95, 35, 5)</t>
-  </si>
-  <si>
-    <t>(95, 35, 35)</t>
-  </si>
-  <si>
-    <t>(95, 35, 65)</t>
-  </si>
-  <si>
-    <t>(95, 35, 95)</t>
-  </si>
-  <si>
-    <t>(95, 65, 5)</t>
-  </si>
-  <si>
-    <t>(95, 65, 35)</t>
-  </si>
-  <si>
-    <t>(95, 65, 65)</t>
-  </si>
-  <si>
-    <t>(95, 65, 95)</t>
-  </si>
-  <si>
-    <t>(95, 95, 5)</t>
-  </si>
-  <si>
-    <t>(95, 95, 35)</t>
-  </si>
-  <si>
-    <t>(95, 95, 65)</t>
-  </si>
-  <si>
-    <t>(95, 95, 95)</t>
-  </si>
-  <si>
-    <t>Tucker with OC-SVM</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
-    <t>(35, 35, 35) at 0.88</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -370,6 +173,219 @@
   </si>
   <si>
     <t>Autoencoder and OC-SVM: Factor 20 (bottleneck 16)</t>
+  </si>
+  <si>
+    <t>(5,5,5)</t>
+  </si>
+  <si>
+    <t>(5,5,16)</t>
+  </si>
+  <si>
+    <t>(5,5,32)</t>
+  </si>
+  <si>
+    <t>(5,5,64)</t>
+  </si>
+  <si>
+    <t>(5,16,5)</t>
+  </si>
+  <si>
+    <t>(5,16,16)</t>
+  </si>
+  <si>
+    <t>(5,16,32)</t>
+  </si>
+  <si>
+    <t>(5,16,64)</t>
+  </si>
+  <si>
+    <t>(5,32,5)</t>
+  </si>
+  <si>
+    <t>(5,32,16)</t>
+  </si>
+  <si>
+    <t>(5,32,32)</t>
+  </si>
+  <si>
+    <t>(5,32,64)</t>
+  </si>
+  <si>
+    <t>(5,64,5)</t>
+  </si>
+  <si>
+    <t>(5,64,16)</t>
+  </si>
+  <si>
+    <t>(5,64,32)</t>
+  </si>
+  <si>
+    <t>(5,64,64)</t>
+  </si>
+  <si>
+    <t>(16,5,5)</t>
+  </si>
+  <si>
+    <t>(16,5,16)</t>
+  </si>
+  <si>
+    <t>(16,5,32)</t>
+  </si>
+  <si>
+    <t>(16,5,64)</t>
+  </si>
+  <si>
+    <t>(16,16,5)</t>
+  </si>
+  <si>
+    <t>(16,16,16)</t>
+  </si>
+  <si>
+    <t>(16,16,32)</t>
+  </si>
+  <si>
+    <t>(16,16,64)</t>
+  </si>
+  <si>
+    <t>(16,32,5)</t>
+  </si>
+  <si>
+    <t>(16,32,16)</t>
+  </si>
+  <si>
+    <t>(16,32,32)</t>
+  </si>
+  <si>
+    <t>(16,32,64)</t>
+  </si>
+  <si>
+    <t>(16,64,5)</t>
+  </si>
+  <si>
+    <t>(16,64,16)</t>
+  </si>
+  <si>
+    <t>(16,64,32)</t>
+  </si>
+  <si>
+    <t>(16,64,64)</t>
+  </si>
+  <si>
+    <t>(32,5,5)</t>
+  </si>
+  <si>
+    <t>(32,5,16)</t>
+  </si>
+  <si>
+    <t>(32,5,32)</t>
+  </si>
+  <si>
+    <t>(32,5,64)</t>
+  </si>
+  <si>
+    <t>(32,16,5)</t>
+  </si>
+  <si>
+    <t>(32,16,16)</t>
+  </si>
+  <si>
+    <t>(32,16,32)</t>
+  </si>
+  <si>
+    <t>(32,16,64)</t>
+  </si>
+  <si>
+    <t>(32,32,5)</t>
+  </si>
+  <si>
+    <t>(32,32,16)</t>
+  </si>
+  <si>
+    <t>(32,32,32)</t>
+  </si>
+  <si>
+    <t>(32,32,64)</t>
+  </si>
+  <si>
+    <t>(32,64,5)</t>
+  </si>
+  <si>
+    <t>(32,64,16)</t>
+  </si>
+  <si>
+    <t>(32,64,32)</t>
+  </si>
+  <si>
+    <t>(32,64,64)</t>
+  </si>
+  <si>
+    <t>(64,5,5)</t>
+  </si>
+  <si>
+    <t>(64,5,16)</t>
+  </si>
+  <si>
+    <t>(64,5,32)</t>
+  </si>
+  <si>
+    <t>(64,5,64)</t>
+  </si>
+  <si>
+    <t>(64,16,5)</t>
+  </si>
+  <si>
+    <t>(64,16,16)</t>
+  </si>
+  <si>
+    <t>(64,16,32)</t>
+  </si>
+  <si>
+    <t>(64,16,64)</t>
+  </si>
+  <si>
+    <t>(64,32,5)</t>
+  </si>
+  <si>
+    <t>(64,32,16)</t>
+  </si>
+  <si>
+    <t>(64,32,32)</t>
+  </si>
+  <si>
+    <t>(64,32,64)</t>
+  </si>
+  <si>
+    <t>(64,64,5)</t>
+  </si>
+  <si>
+    <t>(64,64,16)</t>
+  </si>
+  <si>
+    <t>(64,64,32)</t>
+  </si>
+  <si>
+    <t>(64,64,64)</t>
+  </si>
+  <si>
+    <t>(32, 32, 16) at 0.9</t>
+  </si>
+  <si>
+    <t>Autoencoder: factor=2, bottleneck=64</t>
+  </si>
+  <si>
+    <t>(32,5,5) at 0.98</t>
+  </si>
+  <si>
+    <t>(16,64,5) at 0.84</t>
+  </si>
+  <si>
+    <t>autoencoder with oc-svm: factor=1</t>
+  </si>
+  <si>
+    <t>Bottleneck 64</t>
+  </si>
+  <si>
+    <t>(5,5,5) at 0.78</t>
   </si>
 </sst>
 </file>
@@ -405,8 +421,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,11 +763,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08DC109-0DFE-425C-811D-898250066C7D}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -756,706 +776,1286 @@
     <col min="6" max="6" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>0.44</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>0.46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0.46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>0.46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F11">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>0.68</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>0.68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F15">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F16">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F17">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F18">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>0.46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>0.46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F22">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>0.46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F23">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>0.64</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F24">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25">
+        <v>0.62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F25">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>0.62</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F26">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>0.62</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F27">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>0.78</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F28">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>0.82</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="E29" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F29">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>0.82</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F30">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>0.82</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F31">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F32">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F33">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F34">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F35">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E36" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+      <c r="F36">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>0.66</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>0.66</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F38">
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>0.66</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40">
+        <v>0.76</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F40">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>0.8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>0.8</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F42">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>0.84</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F44">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <v>0.9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F45">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <v>0.9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F46">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F47">
         <v>0.64</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48">
+        <v>0.6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F48">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F49">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50">
+        <v>0.6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F50">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="F51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52">
+        <v>0.6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="F52">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53">
+        <v>0.6</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F53">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54">
+        <v>0.6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F54">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55">
+        <v>0.6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F55">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56">
+        <v>0.6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F56">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57">
+        <v>0.6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F57">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>0.6</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F59">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60">
+        <v>0.6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F60">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61">
+        <v>0.6</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F61">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62">
+        <v>0.6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F62">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63">
+        <v>0.6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F63">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64">
+        <v>0.6</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E64" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64">
+      <c r="F64">
         <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C65">
         <v>0.6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F65">
+        <v>0.44</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C66">
         <v>0.6</v>
       </c>
+      <c r="D66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F66">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67">
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F67">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s">
-        <v>110</v>
+      <c r="F68">
+        <f>MAX(F4:F67)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F75" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>10</v>
-      </c>
-      <c r="C74">
-        <v>0.6</v>
-      </c>
-      <c r="D74">
-        <v>0.38</v>
-      </c>
-      <c r="E74">
-        <v>0.46</v>
-      </c>
-      <c r="F74">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>15</v>
-      </c>
-      <c r="C75">
-        <v>0.6</v>
-      </c>
-      <c r="D75">
-        <v>0.62</v>
-      </c>
-      <c r="E75">
-        <v>0.44</v>
-      </c>
-      <c r="F75">
-        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="D76">
-        <v>0.74</v>
+        <v>0.38</v>
       </c>
       <c r="E76">
         <v>0.46</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="D77">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="E77">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
       <c r="F77">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="D78">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E78">
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="F78">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D79">
         <v>0.9</v>
       </c>
       <c r="E79">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="F79">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D80">
         <v>0.9</v>
       </c>
       <c r="E80">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F80">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C81">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D81">
         <v>0.9</v>
       </c>
       <c r="E81">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F81">
         <v>0.56000000000000005</v>
@@ -1463,10 +2063,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C82">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="D82">
         <v>0.9</v>
@@ -1475,148 +2075,148 @@
         <v>0.96</v>
       </c>
       <c r="F82">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C83">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="D83">
         <v>0.9</v>
       </c>
       <c r="E83">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F83">
-        <v>0.8</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C84">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="D84">
         <v>0.9</v>
       </c>
       <c r="E84">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F84">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C85">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="D85">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E85">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="F85">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="D86">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="E86">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F86">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C87">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
       <c r="D87">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="E87">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="F87">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C88">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D88">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="E88">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F88">
-        <v>0.56000000000000005</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C89">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="D89">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="E89">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="F89">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C90">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D90">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="E90">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F90">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C91">
         <v>0.84</v>
@@ -1625,87 +2225,121 @@
         <v>0.82</v>
       </c>
       <c r="E91">
+        <v>0.48</v>
+      </c>
+      <c r="F91">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>0.82</v>
+      </c>
+      <c r="D92">
+        <v>0.82</v>
+      </c>
+      <c r="E92">
+        <v>0.48</v>
+      </c>
+      <c r="F92">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>95</v>
+      </c>
+      <c r="C93">
+        <v>0.84</v>
+      </c>
+      <c r="D93">
+        <v>0.82</v>
+      </c>
+      <c r="E93">
         <v>0.5</v>
       </c>
-      <c r="F91">
+      <c r="F93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E93" t="s">
-        <v>76</v>
-      </c>
-      <c r="F93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
         <v>1</v>
       </c>
-      <c r="D97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98">
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
         <v>0.62</v>
       </c>
-      <c r="D98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99">
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
         <v>0.44</v>
       </c>
-      <c r="D99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100">
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
         <v>0.42</v>
       </c>
-      <c r="D100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101">
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103">
         <v>0.74</v>
       </c>
-      <c r="D101" t="s">
-        <v>105</v>
+      <c r="D103" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1718,9 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ED864E-F45D-4DB1-A622-1F4710D7B3A3}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1729,20 +2361,20 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1922,7 +2554,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f>MAX(C5:C8)</f>
@@ -1967,12 +2599,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2182,7 +2814,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <f>MAX(C13:C17)</f>
@@ -2227,12 +2859,12 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2442,7 +3074,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:K27" si="2">MAX(C22:C26)</f>
@@ -2487,25 +3119,25 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2540,7 +3172,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>0.63970000000000005</v>
@@ -2575,7 +3207,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>0.60640000000000005</v>
@@ -2610,7 +3242,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>0.63339999999999996</v>
@@ -2645,7 +3277,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>0.6421</v>
@@ -2680,7 +3312,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>0.56040000000000001</v>
@@ -2715,7 +3347,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>0.56569999999999998</v>
@@ -2750,7 +3382,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>0.5554</v>
@@ -2785,7 +3417,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>0.54349999999999998</v>
@@ -2820,7 +3452,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>0.53</v>
@@ -2855,7 +3487,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>0.53979999999999995</v>
@@ -2890,7 +3522,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>0.61370000000000002</v>
@@ -2925,7 +3557,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>0.60950000000000004</v>
@@ -2960,7 +3592,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>0.52990000000000004</v>
@@ -2995,7 +3627,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>0.53769999999999996</v>
@@ -3030,7 +3662,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>0.60609999999999997</v>
@@ -3065,7 +3697,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>0.59540000000000004</v>
@@ -3100,7 +3732,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <f>MAX(C37:C52)</f>
@@ -3145,17 +3777,17 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3188,12 +3820,12 @@
         <v>9</v>
       </c>
       <c r="N58" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>0.93200000000000005</v>
@@ -3228,7 +3860,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>0.60840000000000005</v>
@@ -3263,7 +3895,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0.64890000000000003</v>
@@ -3298,7 +3930,37 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+      <c r="D62">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="F62">
+        <v>0.5302</v>
+      </c>
+      <c r="G62">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="H62">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="I62">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="J62">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="K62">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="L62">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="M62">
+        <v>0.74029999999999996</v>
       </c>
     </row>
   </sheetData>
